--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428411.0377923245</v>
+        <v>436841.6767488793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5670007.60999511</v>
+        <v>5670007.609995108</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +741,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>66.95039176927961</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>74.22897817611099</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>36.43923176655773</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,58 +1616,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>3.749580224518652</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>81.22620533006689</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2041,22 +2041,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,70 +2078,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,64 +2245,64 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,64 +2327,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>21.45556623733946</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2482,55 +2482,55 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>71.27563719245525</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,64 +2789,64 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,19 +2877,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>3.433706607631509</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>41.32673120838164</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,70 +3029,70 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>91.56533252450006</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3165,7 +3165,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>171.0057867469176</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3345,19 +3345,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.8542299924609</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>154.6782343394637</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3503,65 +3503,65 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>77.67482599102838</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,61 +3664,61 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,25 +3782,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,25 +3819,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>164.2908645372125</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>65.05504153722165</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4119,10 +4119,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4352,25 +4352,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U2" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="4">
@@ -4586,28 +4586,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4823,25 +4823,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
         <v>19.28114311021272</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>125.0774898247174</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C9" t="n">
-        <v>125.0774898247174</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>889.0783896761807</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>889.0783896761807</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>660.8547714125698</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>660.8547714125698</v>
       </c>
       <c r="W9" t="n">
-        <v>125.0774898247174</v>
+        <v>660.8547714125698</v>
       </c>
       <c r="X9" t="n">
-        <v>125.0774898247174</v>
+        <v>453.003271207037</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.0774898247174</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>205.7769902389545</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5130,13 +5130,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5151,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y12" t="n">
-        <v>548.4453565401495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J13" t="n">
         <v>19.28114311021272</v>
@@ -5242,7 +5242,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>508.9694238887622</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,16 +5361,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5391,16 +5391,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>960.2697007383952</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>716.820924094295</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>508.9694238887622</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y15" t="n">
-        <v>508.9694238887622</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="16">
@@ -5413,28 +5413,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G18" t="n">
         <v>222.9499078454769</v>
@@ -5601,13 +5601,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>882.0104834600636</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>638.5617068159636</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>430.7102066104308</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="19">
@@ -5689,19 +5689,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>787.171420448546</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y21" t="n">
-        <v>955.386757468614</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5950,10 +5950,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>527.5764290961142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6178,19 +6178,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,10 +6306,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
         <v>473.4149733950735</v>
@@ -6333,22 +6333,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6424,10 +6424,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>546.3373467878552</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C30" t="n">
-        <v>371.8843175067282</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D30" t="n">
-        <v>222.9499078454769</v>
+        <v>467.2523720189268</v>
       </c>
       <c r="E30" t="n">
-        <v>222.9499078454769</v>
+        <v>308.0149170134713</v>
       </c>
       <c r="F30" t="n">
-        <v>222.9499078454769</v>
+        <v>161.4803590403563</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>22.74953362297182</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>922.312982572877</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y30" t="n">
-        <v>714.5526838079231</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W33" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>466.183833194304</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C36" t="n">
-        <v>466.183833194304</v>
+        <v>170.0885123598083</v>
       </c>
       <c r="D36" t="n">
-        <v>317.2494235330527</v>
+        <v>21.15410269855707</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>21.15410269855707</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>634.399170214372</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>634.399170214372</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="37">
@@ -7072,7 +7072,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>333.21913046151</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>784.4282058705639</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>784.4282058705639</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>784.4282058705639</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>540.9794292264639</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>540.9794292264639</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>333.21913046151</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7366,16 +7366,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>114.6452713866835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C41" t="n">
-        <v>114.6452713866835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D41" t="n">
-        <v>114.6452713866835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>114.6452713866835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>114.6452713866835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>114.6452713866835</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>694.6722890434539</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="C42" t="n">
-        <v>528.7219208240474</v>
+        <v>393.1651709458303</v>
       </c>
       <c r="D42" t="n">
-        <v>528.7219208240474</v>
+        <v>244.230761284579</v>
       </c>
       <c r="E42" t="n">
-        <v>369.484465818592</v>
+        <v>84.99330627912349</v>
       </c>
       <c r="F42" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,13 +7491,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y42" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="43">
@@ -7594,13 +7594,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7679,19 +7679,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7828,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8778,16 +8778,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -10194,16 +10194,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>292.5201795090609</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11391,7 +11391,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22629,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>80.49467379535915</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22826,31 +22826,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>130.88463262487</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22963,10 +22963,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23063,28 +23063,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.70668231727912</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,22 +23148,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>97.45419292772684</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>133.416483154574</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23355,7 +23355,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>52.95740108485735</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,16 +23391,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>229.0510069249066</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23735,13 +23735,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23750,7 +23750,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,19 +23811,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23868,16 +23868,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>151.5743818193584</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23929,22 +23929,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24014,22 +24014,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,16 +24096,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.0990017157023</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,10 +24254,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.0541832853293</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,16 +24288,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>125.9894993272993</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,10 +24336,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24491,13 +24491,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24573,22 +24573,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>134.4973480110222</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,19 +24765,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.801737628865</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24822,10 +24822,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>164.4462539950958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,28 +24917,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>181.5942737834321</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,10 +25002,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>66.07974793090088</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>61.79480040250769</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,19 +25233,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>143.214982400923</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,10 +25293,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>51.09475086401375</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25391,25 +25391,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>334.9551062341192</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25442,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>122.4899027037932</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,25 +25670,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,25 +25707,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>8.417634451103282</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>80.01417085616222</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25953,7 +25953,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26007,10 +26007,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490352.6188026461</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490352.6188026461</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490352.6188026462</v>
+        <v>490352.6188026461</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490352.6188026463</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="D2" t="n">
-        <v>116312.4707719326</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="E2" t="n">
         <v>116312.4707719327</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39028.14132253425</v>
+        <v>-38020.49773599602</v>
       </c>
       <c r="C6" t="n">
-        <v>41741.29020901351</v>
+        <v>42748.93379555175</v>
       </c>
       <c r="D6" t="n">
-        <v>41741.29020901344</v>
+        <v>42748.93379555176</v>
       </c>
       <c r="E6" t="n">
-        <v>75368.89020901354</v>
+        <v>76376.53379555172</v>
       </c>
       <c r="F6" t="n">
-        <v>75368.89020901348</v>
+        <v>76376.53379555175</v>
       </c>
       <c r="G6" t="n">
-        <v>75368.89020901351</v>
+        <v>76376.53379555178</v>
       </c>
       <c r="H6" t="n">
-        <v>75368.89020901351</v>
+        <v>76376.53379555173</v>
       </c>
       <c r="I6" t="n">
-        <v>75368.89020901352</v>
+        <v>76376.53379555172</v>
       </c>
       <c r="J6" t="n">
-        <v>12308.94760990724</v>
+        <v>13316.59119644553</v>
       </c>
       <c r="K6" t="n">
-        <v>75368.89020901351</v>
+        <v>76376.53379555176</v>
       </c>
       <c r="L6" t="n">
-        <v>75368.89020901349</v>
+        <v>76376.53379555175</v>
       </c>
       <c r="M6" t="n">
-        <v>75368.89020901351</v>
+        <v>76376.53379555176</v>
       </c>
       <c r="N6" t="n">
-        <v>75368.89020901351</v>
+        <v>76376.53379555172</v>
       </c>
       <c r="O6" t="n">
-        <v>75368.89020901351</v>
+        <v>76376.53379555173</v>
       </c>
       <c r="P6" t="n">
-        <v>75368.89020901348</v>
+        <v>76376.53379555175</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35498,16 +35498,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35969,16 +35969,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38111,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
